--- a/ST_setting/UniDAX_MarketMaker.xlsx
+++ b/ST_setting/UniDAX_MarketMaker.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D8D4E6-EC3C-4D5A-80A6-6906BAB95868}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16926667-17B8-446E-BA25-EC698E6AB3AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="915" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="855" windowWidth="21600" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -709,7 +710,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -741,10 +742,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="2">
-        <v>1900</v>
+        <v>45000</v>
       </c>
       <c r="C2" s="2">
-        <v>2100</v>
+        <v>5500</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
@@ -758,7 +759,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="17">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>19</v>
